--- a/假期学习计划/20212年暑假计划.xlsx
+++ b/假期学习计划/20212年暑假计划.xlsx
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上-四则运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下-方程4道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,10 @@
   </si>
   <si>
     <t>下-举一反三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上-四则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -114,20 +114,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,52 +560,52 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>44373</v>
       </c>
       <c r="B2" s="1"/>
@@ -471,10 +615,10 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>44374</v>
       </c>
       <c r="B3" s="1"/>
@@ -484,10 +628,10 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>44375</v>
       </c>
       <c r="B4" s="1"/>
@@ -497,10 +641,10 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>44376</v>
       </c>
       <c r="B5" s="1"/>
@@ -510,10 +654,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>44377</v>
       </c>
       <c r="B6" s="1"/>
@@ -523,10 +667,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>44378</v>
       </c>
       <c r="B7" s="1"/>
@@ -536,10 +680,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>44379</v>
       </c>
       <c r="B8" s="1"/>
@@ -549,10 +693,10 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>44380</v>
       </c>
       <c r="B9" s="1"/>
@@ -562,10 +706,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>44381</v>
       </c>
       <c r="B10" s="1"/>
@@ -575,10 +719,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -586,10 +730,10 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -597,10 +741,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -608,10 +752,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -619,10 +763,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -630,10 +774,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -641,10 +785,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -652,10 +796,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -663,10 +807,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -674,10 +818,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -685,10 +829,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -696,10 +840,10 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -707,10 +851,10 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -718,10 +862,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -729,18 +873,18 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
